--- a/Sep19/pos_prof/Tables/individual_countries-M_%pop.xlsx
+++ b/Sep19/pos_prof/Tables/individual_countries-M_%pop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
   <si>
     <t>M_ETR</t>
   </si>
@@ -28,6 +28,12 @@
     <t>M_POP</t>
   </si>
   <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
+  </si>
+  <si>
     <t>GFA - Sales</t>
   </si>
   <si>
@@ -413,9 +419,6 @@
   </si>
   <si>
     <t>-inf</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -773,15 +776,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -819,10 +822,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.4638803329537388</v>
@@ -837,33 +846,39 @@
         <v>9223731.5</v>
       </c>
       <c r="F2">
+        <v>42494218261.79173</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>-47.66065233610661</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-63.46963994967235</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-46.49520096727789</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>-57.11580540914793</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-6.403761559897965</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>-8.527882448271972</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>-32.01880779948988</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>-42.63941224135993</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.6205371966434521</v>
@@ -878,33 +893,39 @@
         <v>2879841.25</v>
       </c>
       <c r="F3">
+        <v>2998814894.49083</v>
+      </c>
+      <c r="G3">
+        <v>270011767.8991651</v>
+      </c>
+      <c r="H3">
         <v>-0.02257257300237654</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.3615423019129082</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.00204124255380279</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.260092690656208</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>-0.003032887050752819</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.04857740256972824</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>-0.01516443525376408</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.2428870128486412</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1.038985817918542</v>
@@ -919,33 +940,39 @@
         <v>2919609</v>
       </c>
       <c r="F4">
+        <v>2218564329.546198</v>
+      </c>
+      <c r="G4">
+        <v>294014058.9589359</v>
+      </c>
+      <c r="H4">
         <v>0.1817106590912099</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.8292496170123328</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.1353101492724226</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.5703320052500679</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.02441493510214663</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.1114193062976757</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.1220746755107331</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.5570965314883782</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.5446460905169289</v>
@@ -960,33 +987,39 @@
         <v>43629437.75</v>
       </c>
       <c r="F5">
+        <v>166710713995.8035</v>
+      </c>
+      <c r="G5">
+        <v>15465937803.46667</v>
+      </c>
+      <c r="H5">
         <v>3.513223109454792</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>13.41570736279412</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.852718857177484</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>8.505287055555776</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.4720422821957063</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>1.802555921871364</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>2.360211410978527</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>9.012779609356825</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.3718662846962684</v>
@@ -1001,33 +1034,39 @@
         <v>8683733.75</v>
       </c>
       <c r="F6">
+        <v>163227474729.9723</v>
+      </c>
+      <c r="G6">
+        <v>9639820060.340796</v>
+      </c>
+      <c r="H6">
         <v>23.06282033185705</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>21.19508218890357</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>16.82059240428262</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>15.56583096716946</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>3.098757466903028</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>2.847805179480397</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>15.49378733451515</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>14.23902589740199</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1.078298440014149</v>
@@ -1042,33 +1081,39 @@
         <v>24041166</v>
       </c>
       <c r="F7">
+        <v>361502269857.717</v>
+      </c>
+      <c r="G7">
+        <v>59545549400.06455</v>
+      </c>
+      <c r="H7">
         <v>93.35212271238878</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>109.2986650095998</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>152.0554351237192</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>162.7684499032929</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>12.54294067871142</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>14.68554363462616</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>62.7147033935571</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>73.42771817313081</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.1054646367899041</v>
@@ -1083,33 +1128,39 @@
         <v>104555.5</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>-307.6722038242496</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>-322.5889294217152</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>-327.9234622418516</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>-337.9446379180634</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>-41.33932993624177</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>-43.34356507148411</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>-206.6966496812089</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>-216.7178253574208</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0.08550529520849598</v>
@@ -1124,33 +1175,39 @@
         <v>3531449</v>
       </c>
       <c r="F9">
+        <v>6376905261.574483</v>
+      </c>
+      <c r="G9">
+        <v>299987147.5604433</v>
+      </c>
+      <c r="H9">
         <v>-0.1210244377633532</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.1025830863644695</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>-0.1707964311905232</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>-0.02057510633164018</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>-0.01626103723658211</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.01378322773519449</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>-0.08130518618291079</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.06891613867597216</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0.0166705414399613</v>
@@ -1165,33 +1222,39 @@
         <v>284579.25</v>
       </c>
       <c r="F10">
+        <v>1337070536.443148</v>
+      </c>
+      <c r="G10">
+        <v>130111830.9037901</v>
+      </c>
+      <c r="H10">
         <v>-455.9705633753874</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>-779.7371975663488</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>-314.3482990064215</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>-531.8573158562523</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>-61.26493497396495</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>-104.7667383439311</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>-306.3246748698255</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>-523.8336917196563</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0.3807937740264143</v>
@@ -1206,33 +1269,39 @@
         <v>162056869</v>
       </c>
       <c r="F11">
+        <v>19299500079.81276</v>
+      </c>
+      <c r="G11">
+        <v>3852631858.235275</v>
+      </c>
+      <c r="H11">
         <v>-0.5105704037698184</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>-0.4586870117024869</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>-0.3720547153812013</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>-0.3371990372240028</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>-0.06860105695208442</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>-0.06162992132064472</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>-0.3430052847604227</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>-0.3081496066032242</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0.1765509802813119</v>
@@ -1247,33 +1316,39 @@
         <v>11296685.75</v>
       </c>
       <c r="F12">
+        <v>207904913535.2679</v>
+      </c>
+      <c r="G12">
+        <v>19310426587.22296</v>
+      </c>
+      <c r="H12">
         <v>136.3802893850094</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>41.67775428978649</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>110.324239448722</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>46.70231820528963</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>18.32427404754296</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>5.599889798856503</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>91.62137023771469</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>27.99944899428229</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0.08541399034785069</v>
@@ -1288,33 +1363,39 @@
         <v>7151435.5</v>
       </c>
       <c r="F13">
+        <v>15635710825.9256</v>
+      </c>
+      <c r="G13">
+        <v>1209008774.759262</v>
+      </c>
+      <c r="H13">
         <v>0.1317594795799634</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>3.894445948440957</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.7089376488737864</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>3.236740541847011</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.01770341464351177</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.5232639932381568</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.08851707321755718</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>2.616319966190781</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0.03195894343465661</v>
@@ -1329,10 +1410,10 @@
         <v>1406501.75</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>344245067.4295055</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>41603949.32570496</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1352,10 +1433,16 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0.01916494299570608</v>
@@ -1393,10 +1480,16 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>0.5435900323311412</v>
@@ -1411,33 +1504,39 @@
         <v>10806586.5</v>
       </c>
       <c r="F16">
+        <v>10765106899.85116</v>
+      </c>
+      <c r="G16">
+        <v>1857238890.070168</v>
+      </c>
+      <c r="H16">
         <v>1.125369617017709</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>2.10971809820401</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>1.148593292416894</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>1.809886482542765</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.1512064636319625</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.2834651016571366</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.7560323181598125</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>1.417325508285682</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>6.471261278245624</v>
@@ -1452,33 +1551,39 @@
         <v>206779096</v>
       </c>
       <c r="F17">
+        <v>614031604400.1611</v>
+      </c>
+      <c r="G17">
+        <v>50490649816.95195</v>
+      </c>
+      <c r="H17">
         <v>19.72452159610013</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>32.13874700109165</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>20.09213026285518</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>28.43210627532869</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>2.650218303638137</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>4.318213506132836</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>13.25109151819068</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>21.59106753066417</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0.001481620105625933</v>
@@ -1493,7 +1598,7 @@
         <v>388900</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1700685949.597928</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1516,10 +1621,16 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>0.3305610002155921</v>
@@ -1534,33 +1645,39 @@
         <v>2229922.75</v>
       </c>
       <c r="F19">
+        <v>3625845354.29923</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>1.185652781118904</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>3.324822844285936</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>0.7194346489030334</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>2.156546223036453</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.1593062060831963</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.4467285209098801</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.7965310304159807</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>2.233642604549401</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>0.1848601141168272</v>
@@ -1575,33 +1692,39 @@
         <v>9493384</v>
       </c>
       <c r="F20">
+        <v>16491907898.09357</v>
+      </c>
+      <c r="G20">
+        <v>1436245672.195966</v>
+      </c>
+      <c r="H20">
         <v>0.03152871583976193</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>0.4161997688183596</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>0.004382777807162424</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.2628078707851334</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>0.004236248742543077</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>0.05592126733813727</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.02118124371271531</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>0.2796063366906864</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>0.2732084640075076</v>
@@ -1616,33 +1739,39 @@
         <v>36085137</v>
       </c>
       <c r="F21">
+        <v>495997171341.8364</v>
+      </c>
+      <c r="G21">
+        <v>52563581921.39192</v>
+      </c>
+      <c r="H21">
         <v>101.7884940177062</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>130.1389080913233</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>120.7519790655124</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>139.7980142069873</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>13.67646503521901</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>17.485672063514</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>68.38232517609505</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>87.4283603175699</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>0.1152854342222651</v>
@@ -1657,33 +1786,39 @@
         <v>17835239.75</v>
       </c>
       <c r="F22">
+        <v>43397909696.74773</v>
+      </c>
+      <c r="G22">
+        <v>10627264858.73001</v>
+      </c>
+      <c r="H22">
         <v>-22.10149895035825</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>-1.289285571478699</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>-16.06357866448992</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>-2.081767098820682</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>-2.969592786861789</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>-0.1732304737279399</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>-14.84796393430894</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>-0.8661523686396997</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>0.2635720909729406</v>
@@ -1698,33 +1833,39 @@
         <v>1375137500</v>
       </c>
       <c r="F23">
+        <v>2669714541701.067</v>
+      </c>
+      <c r="G23">
+        <v>434215616892.8914</v>
+      </c>
+      <c r="H23">
         <v>0.5557793221070655</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>3.487318245866507</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>0.1629989362537932</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>2.132430254453932</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.07467539960629348</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>0.4685616632463216</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>0.3733769980314667</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>2.342808316231605</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>0.6926113902235932</v>
@@ -1739,33 +1880,39 @@
         <v>48434910.5</v>
       </c>
       <c r="F24">
+        <v>54317832169.73812</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>3.970618352021738</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>9.483484077207819</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>3.793160839307879</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>7.496748168208212</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.5334986393469785</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>1.274216105127045</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>2.667493196734891</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>6.371080525635223</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>0.1696800597082566</v>
@@ -1780,33 +1927,39 @@
         <v>4832117.5</v>
       </c>
       <c r="F25">
+        <v>7813132536.326554</v>
+      </c>
+      <c r="G25">
+        <v>1653404469.940727</v>
+      </c>
+      <c r="H25">
         <v>1.585619231833822</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>87.81760891298234</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>-2.187828491540081</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>55.74351252950136</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.2130463388089264</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>11.79931454301721</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>1.06523169404461</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>58.99657271508606</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>0.05140512758335535</v>
@@ -1820,34 +1973,40 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>132</v>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>134</v>
+      </c>
+      <c r="N26" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>0.01021498128951731</v>
@@ -1862,33 +2021,39 @@
         <v>1165742.5</v>
       </c>
       <c r="F27">
+        <v>4918777342.358389</v>
+      </c>
+      <c r="G27">
+        <v>1133445849.661561</v>
+      </c>
+      <c r="H27">
         <v>-153.6569049737229</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>-154.2252182202454</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>-155.1129846667159</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>-155.4947820555134</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>-20.64558778055539</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>-20.7219472583149</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>-103.2279389027771</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>-103.6097362915745</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>0.1657072661536193</v>
@@ -1903,33 +2068,39 @@
         <v>10557265.25</v>
       </c>
       <c r="F28">
+        <v>68118979753.21311</v>
+      </c>
+      <c r="G28">
+        <v>7232899630.742956</v>
+      </c>
+      <c r="H28">
         <v>4.948500585516665</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>29.98102184713762</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>2.901447127964463</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>19.71849531606235</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.6648884619788858</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>4.028298099598462</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>3.324442309894425</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>20.1414904979923</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>0.3567911176518284</v>
@@ -1944,33 +2115,39 @@
         <v>81928195</v>
       </c>
       <c r="F29">
+        <v>1306253977481.738</v>
+      </c>
+      <c r="G29">
+        <v>70004185267.32045</v>
+      </c>
+      <c r="H29">
         <v>54.26619606890758</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>53.76892004340126</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>39.47934380030962</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>39.14526978529832</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>7.291292992326358</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>7.224478189324101</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>36.4564649616318</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>36.12239094662048</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>0.5233560154281636</v>
@@ -1985,33 +2162,39 @@
         <v>5706142.75</v>
       </c>
       <c r="F30">
+        <v>139276466440.4725</v>
+      </c>
+      <c r="G30">
+        <v>9208793855.98259</v>
+      </c>
+      <c r="H30">
         <v>15.96557183910026</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>18.42829395697479</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>12.33850044905812</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>13.9929768838265</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>2.1451597956322</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>2.476055082585876</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>10.725798978161</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>12.38027541292939</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>0.1134284127311136</v>
@@ -2026,33 +2209,39 @@
         <v>10587506.75</v>
       </c>
       <c r="F31">
+        <v>9841476869.357698</v>
+      </c>
+      <c r="G31">
+        <v>1647374473.501711</v>
+      </c>
+      <c r="H31">
         <v>-5.326705910683938</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>9.136967859973151</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>-4.854617210693324</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>4.862194621241069</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>-0.7157047350331265</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>1.227657631353753</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>-3.578523675165631</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>6.138288156768763</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>0.5868422406058135</v>
@@ -2067,33 +2256,39 @@
         <v>40227258.75</v>
       </c>
       <c r="F32">
+        <v>22778595737.35755</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>-6.22221747300487</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>-6.239143492942308</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>-5.915141317445194</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>-5.926512353144941</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>-0.8360271023980087</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>-0.8383013095379588</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>-4.180135511990044</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>-4.191506547689793</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>4.507268197059778</v>
@@ -2108,33 +2303,39 @@
         <v>16264351.5</v>
       </c>
       <c r="F33">
+        <v>13997334282.94469</v>
+      </c>
+      <c r="G33">
+        <v>1015246901.280969</v>
+      </c>
+      <c r="H33">
         <v>4.259767906899967</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>6.468775577476837</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>4.081985973627194</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>5.566015011522179</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>0.5723492365132288</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>0.8691550440922262</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>2.861746182566145</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>4.345775220461129</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>0.2102643889941552</v>
@@ -2149,33 +2350,39 @@
         <v>1315305.5</v>
       </c>
       <c r="F34">
+        <v>7697058981.156044</v>
+      </c>
+      <c r="G34">
+        <v>361416955.3250054</v>
+      </c>
+      <c r="H34">
         <v>-1.076844048484856</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>9.962694636221558</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>-1.872253808092113</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>5.544196660271807</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>-0.1446864905470052</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>1.338603603125779</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>-0.7234324527350304</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>6.69301801562889</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>1.198105386173035</v>
@@ -2190,33 +2397,39 @@
         <v>94708142.5</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>11105157233.4294</v>
+      </c>
+      <c r="H35">
         <v>1.164106271986185</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>2.23692622680678</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>1.416639332967337</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>2.137368367362758</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>0.1564111826168564</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>0.3005569894959407</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>0.7820559130842809</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>1.502784947479703</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>1.261330904214141</v>
@@ -2231,33 +2444,39 @@
         <v>46495451</v>
       </c>
       <c r="F36">
+        <v>415655347467.2473</v>
+      </c>
+      <c r="G36">
+        <v>28563666355.93319</v>
+      </c>
+      <c r="H36">
         <v>35.05704677281368</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>37.45308621443338</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>29.45282339349442</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>31.06250187250881</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>4.710320936107204</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>5.032256631910081</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>23.55160468053602</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>25.1612831595504</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>0.1270732915691374</v>
@@ -2272,33 +2491,39 @@
         <v>5486912.25</v>
       </c>
       <c r="F37">
+        <v>103462881215.5806</v>
+      </c>
+      <c r="G37">
+        <v>6534284466.24057</v>
+      </c>
+      <c r="H37">
         <v>0.8184875013243964</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>2.31344573689505</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>1.0051294672904</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>2.009454378234568</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>0.1099732912020465</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>0.31083827339088</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>0.5498664560102325</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>1.554191366954395</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>0.182619173558908</v>
@@ -2313,33 +2538,39 @@
         <v>895554.25</v>
       </c>
       <c r="F38">
+        <v>1261625587.410089</v>
+      </c>
+      <c r="G38">
+        <v>206282623.6744426</v>
+      </c>
+      <c r="H38">
         <v>2.54972581665473</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>13.25876188858795</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>5.619335432346715</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>12.81375159952258</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>0.3425852432280591</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>1.781468476663233</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>1.712926216140293</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>8.907342383316163</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>0.4691004962934454</v>
@@ -2354,33 +2585,39 @@
         <v>66721968.5</v>
       </c>
       <c r="F39">
+        <v>1140278490929.481</v>
+      </c>
+      <c r="G39">
+        <v>57843670218.60881</v>
+      </c>
+      <c r="H39">
         <v>45.40906001159397</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>50.60475234262161</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>37.26042365025393</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>40.75093135374222</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>6.101234010031598</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>6.799335550729259</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>30.506170050158</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>33.9966777536463</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>0.1870761118100804</v>
@@ -2395,33 +2632,39 @@
         <v>65339964.75</v>
       </c>
       <c r="F40">
+        <v>881016914419.2806</v>
+      </c>
+      <c r="G40">
+        <v>74902123749.16447</v>
+      </c>
+      <c r="H40">
         <v>52.6993705310008</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>60.57785221540927</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>52.39889258901301</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>57.69171965788992</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>7.080771804325079</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>8.139337218100454</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>35.40385902162529</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>40.6966860905022</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>0.03179971778383467</v>
@@ -2436,33 +2679,39 @@
         <v>3720125</v>
       </c>
       <c r="F41">
+        <v>3702582423.970196</v>
+      </c>
+      <c r="G41">
+        <v>286471265.8863319</v>
+      </c>
+      <c r="H41">
         <v>-0.5681060516252047</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>-0.4057142865385615</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>-0.7593005391091231</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>-0.6502044512532286</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>-0.0763316387213361</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>-0.05451242115015725</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>-0.3816581936066811</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>-0.2725621057507865</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>0.02920343921703672</v>
@@ -2500,10 +2749,16 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>0.4895231132881281</v>
@@ -2518,33 +2773,39 @@
         <v>1198498</v>
       </c>
       <c r="F43">
+        <v>603079805.3765075</v>
+      </c>
+      <c r="G43">
+        <v>308035640.2218897</v>
+      </c>
+      <c r="H43">
         <v>-65.90422601164579</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>-84.13840972555191</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>-11.82397190758197</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>-24.0738425052164</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>-8.854997329704629</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>-11.30497144923151</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>-44.27498664852322</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>-56.52485724615764</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>0.3168591219452894</v>
@@ -2559,33 +2820,39 @@
         <v>10812422</v>
       </c>
       <c r="F44">
+        <v>74878918912.15085</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>2.828626407704576</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>6.565713049843756</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>0.8999759105458996</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>3.410580634981153</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>0.3800587732041639</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>0.8821797180912154</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>1.90029386602082</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>4.410898590456076</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>2.534325418380812</v>
@@ -2600,33 +2867,39 @@
         <v>16417990</v>
       </c>
       <c r="F45">
+        <v>7414246639.670252</v>
+      </c>
+      <c r="G45">
+        <v>2436431034.642188</v>
+      </c>
+      <c r="H45">
         <v>5.282880513772954</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>12.74118886247485</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>4.619614876529401</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>9.630166134668658</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>0.7098162845329803</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>1.711926536160832</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>3.549081422664902</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>8.559632680804162</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>0.2459453713445875</v>
@@ -2641,33 +2914,39 @@
         <v>162472.25</v>
       </c>
       <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>-10.39968131815366</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>-21.13749401709722</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>-36.34837192075057</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>-43.56212045633097</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>-1.39731783339288</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>-2.840067540508964</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>-6.986589166964592</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>-14.20033770254498</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>0.1631121327213523</v>
@@ -2682,33 +2961,39 @@
         <v>7312275</v>
       </c>
       <c r="F47">
+        <v>43559381238.4065</v>
+      </c>
+      <c r="G47">
+        <v>17869524335.30607</v>
+      </c>
+      <c r="H47">
         <v>52.8624416373932</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>-33.56447359117013</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>-19.49149874334895</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>-77.55379230767223</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>7.102682299281833</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>-4.509776413582857</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>35.51341149640904</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>-22.54888206791424</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>0.3527272633555201</v>
@@ -2723,33 +3008,39 @@
         <v>9036994.75</v>
       </c>
       <c r="F48">
+        <v>4368900443.186634</v>
+      </c>
+      <c r="G48">
+        <v>731894567.9101902</v>
+      </c>
+      <c r="H48">
         <v>5.913317007155622</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>47.96104908067321</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>4.48687709810891</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>32.73488012945782</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>0.7945227412094519</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>6.444123347479233</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>3.972613706047261</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>32.22061673739616</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>0.2107511226836432</v>
@@ -2764,33 +3055,39 @@
         <v>4185510.5</v>
       </c>
       <c r="F49">
+        <v>18056223502.80032</v>
+      </c>
+      <c r="G49">
+        <v>876216512.2493358</v>
+      </c>
+      <c r="H49">
         <v>-0.7307458902526589</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>2.487634209684887</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>-0.8936614786613315</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>1.268472038078976</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>-0.0981841878506627</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>0.3342425154973993</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>-0.4909209392533121</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>1.671212577486995</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>0.2119778536923761</v>
@@ -2805,33 +3102,39 @@
         <v>9826161.5</v>
       </c>
       <c r="F50">
+        <v>48481519860.35867</v>
+      </c>
+      <c r="G50">
+        <v>2395343498.338683</v>
+      </c>
+      <c r="H50">
         <v>-72.8091978488784</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>-57.16915052061331</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>-77.78300359791344</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>-67.27589459220501</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>-9.782760401674812</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>-7.681338600533129</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>-48.91380200837404</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>-38.40669300266561</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>0.294768796409911</v>
@@ -2846,33 +3149,39 @@
         <v>259600016</v>
       </c>
       <c r="F51">
+        <v>92118038247.22937</v>
+      </c>
+      <c r="G51">
+        <v>35769714392.45492</v>
+      </c>
+      <c r="H51">
         <v>-1.675470991343772</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>-0.743861012902349</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>-0.7497553798875467</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>-0.123892338117867</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>-0.2251189650831347</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>-0.09994635672919883</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>-1.125594825415673</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>-0.4997317836459941</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>0.1363884680781818</v>
@@ -2887,33 +3196,39 @@
         <v>4732160</v>
       </c>
       <c r="F52">
+        <v>69641425049.92018</v>
+      </c>
+      <c r="G52">
+        <v>8500134030.786361</v>
+      </c>
+      <c r="H52">
         <v>-29.19970881171315</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>-355.5668328809841</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>-133.5678335803869</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>-352.8238803493828</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>-3.92331962915677</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>-47.77452898295594</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>-19.61659814578385</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>-238.8726449147798</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>0.2898440760060395</v>
@@ -2928,33 +3243,39 @@
         <v>8463550</v>
       </c>
       <c r="F53">
+        <v>103289811942.907</v>
+      </c>
+      <c r="G53">
+        <v>10472158076.76882</v>
+      </c>
+      <c r="H53">
         <v>-31.44755333494165</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>-19.0178288660366</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>-27.59450099329844</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>-19.24411258560593</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>-4.22534361844179</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>-2.555265936903286</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>-21.12671809220894</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>-12.77632968451643</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>0.3392858462128337</v>
@@ -2969,33 +3290,39 @@
         <v>1316566188.75</v>
       </c>
       <c r="F54">
+        <v>399582448671.4861</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>-1.249897845597811</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>5.376394816958917</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>-1.409035424843105</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>3.042561034419827</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>-0.1679382758127898</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>0.7223810160397964</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>-0.8396913790639485</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>3.611905080198984</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>0.4538924418798343</v>
@@ -3010,33 +3337,39 @@
         <v>60674659</v>
       </c>
       <c r="F55">
+        <v>785093710222.7733</v>
+      </c>
+      <c r="G55">
+        <v>38868557922.75883</v>
+      </c>
+      <c r="H55">
         <v>21.37178084367066</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>22.33584327743868</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>16.70634461273964</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>17.35400947380453</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>2.871546693656569</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>3.001079665869549</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>14.35773346828284</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>15.00539832934773</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>0.1881317763475457</v>
@@ -3051,33 +3384,39 @@
         <v>164145.5</v>
       </c>
       <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>83.6142478701851</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>17.89492307462681</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>196.8386727831924</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>152.6879042519128</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>11.23454422308088</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>2.404390516824976</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>56.17272111540436</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>12.02195258412484</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>0.2116892168852285</v>
@@ -3092,33 +3431,39 @@
         <v>2876418.75</v>
       </c>
       <c r="F57">
+        <v>3610863626.732725</v>
+      </c>
+      <c r="G57">
+        <v>453137723.1855795</v>
+      </c>
+      <c r="H57">
         <v>-2.291640016585208</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>15.69652023045633</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>-2.696097088523489</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>9.38849297446467</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>-0.3079084218957435</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>2.109009590701888</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>-1.539542109478721</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>10.54504795350944</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>0.0521518084924196</v>
@@ -3133,33 +3478,39 @@
         <v>9281690.75</v>
       </c>
       <c r="F58">
+        <v>5832398854.790161</v>
+      </c>
+      <c r="G58">
+        <v>994543936.615576</v>
+      </c>
+      <c r="H58">
         <v>-2.587334535348792</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>-2.45921966434599</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>-1.92074274891781</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>-1.834674152920279</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>-0.3476384108891233</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>-0.3304246916896168</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>-1.738192054445616</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>-1.652123458448084</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>0.2562328189538541</v>
@@ -3174,33 +3525,39 @@
         <v>127049327</v>
       </c>
       <c r="F59">
+        <v>1583945537084.176</v>
+      </c>
+      <c r="G59">
+        <v>222513048778.0717</v>
+      </c>
+      <c r="H59">
         <v>-21.58508784291253</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>-24.01837292051573</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>-30.3976679029077</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>-32.03236829835572</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>-2.900206963611943</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>-3.227147042701551</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>-14.50103481805973</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>-16.13573521350775</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>2.613787747665656</v>
@@ -3215,33 +3572,39 @@
         <v>47855484.5</v>
       </c>
       <c r="F60">
+        <v>10989048500.8325</v>
+      </c>
+      <c r="G60">
+        <v>2481386396.879453</v>
+      </c>
+      <c r="H60">
         <v>0.4560304329967529</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>0.699884021259174</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>0.3987075505644893</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>0.5625303433942741</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>0.06127297915215221</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>0.0940375377181092</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>0.306364895760761</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>0.4701876885905459</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>0.2387805447697462</v>
@@ -3256,33 +3619,39 @@
         <v>15639042</v>
       </c>
       <c r="F61">
+        <v>3180057034.950613</v>
+      </c>
+      <c r="G61">
+        <v>620313116.6581955</v>
+      </c>
+      <c r="H61">
         <v>0.01609952179765076</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>0.5592771393384578</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>0.1615997060937564</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>0.5265107781112961</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>0.002163157526537531</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>0.07514537193004545</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>0.01081578763268741</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>0.3757268596502271</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>0.07143822361100609</v>
@@ -3297,33 +3666,39 @@
         <v>54548.25</v>
       </c>
       <c r="F62">
+        <v>167004107.5429425</v>
+      </c>
+      <c r="G62">
+        <v>22886482.44958925</v>
+      </c>
+      <c r="H62">
         <v>-302.2382369015921</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>-208.4164012093844</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>-209.9351871499325</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>-146.9049268161204</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>-40.60921343989855</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>-28.00316137313611</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>-203.0460671994928</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>-140.0158068656806</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>0.3068939985094956</v>
@@ -3338,33 +3713,39 @@
         <v>51118378.5</v>
       </c>
       <c r="F63">
+        <v>379564407726.6359</v>
+      </c>
+      <c r="G63">
+        <v>54063077465.50417</v>
+      </c>
+      <c r="H63">
         <v>1.773250953917547</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>3.979148862326332</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>0.4076759628513109</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>1.889615837625747</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>0.2382568374152735</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>0.534644812370159</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>1.191284187076368</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>2.673224061850799</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>0.1992611222189326</v>
@@ -3379,7 +3760,7 @@
         <v>3976839</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1834582609.415073</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3402,10 +3783,16 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>0.003561943940379805</v>
@@ -3443,10 +3830,16 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>0.3736880925013732</v>
@@ -3461,33 +3854,39 @@
         <v>17665698</v>
       </c>
       <c r="F66">
+        <v>22181808348.12268</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>-3.847201038940181</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>-3.3558106086836</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>6.153086571844527</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>6.483206596848352</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>-0.516916091551281</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>-0.450892086550516</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>-2.584580457756408</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>-2.254460432752583</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>0.1428837294172986</v>
@@ -3502,33 +3901,39 @@
         <v>5885945.75</v>
       </c>
       <c r="F67">
+        <v>7704382071.825423</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>-0.891735082863822</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>-0.6832206467586216</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>-1.087369327087155</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>-0.9472876595936208</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>-0.1198149535383019</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>-0.0917986200395951</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>-0.5990747676915101</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>-0.4589931001979755</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>0.01908654605389848</v>
@@ -3543,33 +3948,39 @@
         <v>177621.5</v>
       </c>
       <c r="F68">
+        <v>342990005.1519836</v>
+      </c>
+      <c r="G68">
+        <v>34070453.3745492</v>
+      </c>
+      <c r="H68">
         <v>-76.65914980000552</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>-72.8036573107461</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>-59.97066547165127</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>-57.38051475119097</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>-10.30004611019217</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>-9.78201596610011</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>-51.5002305509608</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>-48.91007983050052</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>0.1877638499118782</v>
@@ -3584,33 +3995,39 @@
         <v>21096000</v>
       </c>
       <c r="F69">
+        <v>10295289857.28315</v>
+      </c>
+      <c r="G69">
+        <v>1079873612.750378</v>
+      </c>
+      <c r="H69">
         <v>-0.02486780201208386</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>0.6808430355023036</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>-0.1850961834420277</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>0.2890060069569059</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>-0.003341277695510918</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>0.09147916038427586</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>-0.01670638847755477</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>0.4573958019213786</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>0.1157679105624186</v>
@@ -3625,33 +4042,39 @@
         <v>2883307.25</v>
       </c>
       <c r="F70">
+        <v>12668620841.55388</v>
+      </c>
+      <c r="G70">
+        <v>640003904.3871918</v>
+      </c>
+      <c r="H70">
         <v>-2.058220403464199</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>5.570688334013628</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>-2.834189191252618</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>2.290972773853328</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>-0.2765457889361831</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>0.7484866040850069</v>
       </c>
-      <c r="L70">
+      <c r="N70">
         <v>-1.382728944680915</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>3.74243302042503</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>0.03882925511546208</v>
@@ -3666,33 +4089,39 @@
         <v>1967896.5</v>
       </c>
       <c r="F71">
+        <v>8331725108.718972</v>
+      </c>
+      <c r="G71">
+        <v>436094132.0608147</v>
+      </c>
+      <c r="H71">
         <v>-1.433809788537002</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>-0.4370873667426227</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>-2.35870834110171</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>-1.689102238612444</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>-0.1926489789373445</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>-0.05872775843949078</v>
       </c>
-      <c r="L71">
+      <c r="N71">
         <v>-0.963244894686722</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>-0.2936387921974555</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>0.2114788631148144</v>
@@ -3707,33 +4136,39 @@
         <v>35034442.5</v>
       </c>
       <c r="F72">
+        <v>23155221009.51609</v>
+      </c>
+      <c r="G72">
+        <v>4710628793.764984</v>
+      </c>
+      <c r="H72">
         <v>0.4211846668055942</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>5.515126906161173</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>0.1713756734210939</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>3.593526850736539</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>0.05659104621328903</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>0.741021281676378</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>0.2829552310664439</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>3.705106408381889</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>0.4709552485333245</v>
@@ -3748,33 +4183,39 @@
         <v>38408.25</v>
       </c>
       <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <v>139.2587625065535</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>93.12513001080708</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>133.5533469893431</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>102.5604033435728</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>18.71103030503083</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>12.51244157587676</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>93.5551515251541</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>62.56220787938374</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74">
         <v>0.0927937946339874</v>
@@ -3789,33 +4230,39 @@
         <v>2103721</v>
       </c>
       <c r="F74">
+        <v>2748208316.912612</v>
+      </c>
+      <c r="G74">
+        <v>198917935.3193891</v>
+      </c>
+      <c r="H74">
         <v>0.3288974618162276</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>3.646432828266798</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>0.4548245370436352</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>2.683571355641385</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>0.04419118958493937</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>0.4899405533044893</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>0.2209559479246967</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>2.449702766522446</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>0.2938881340975527</v>
@@ -3830,33 +4277,39 @@
         <v>52645920.75</v>
       </c>
       <c r="F75">
+        <v>4234214727.32078</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
         <v>0.02221172020687523</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>0.1767291998401836</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>0.1502715604946625</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>0.2540776403433096</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>0.002984402291368544</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>0.02374561826109796</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>0.01492201145684279</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>0.1187280913054898</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>0.005174931977624367</v>
@@ -3871,33 +4324,39 @@
         <v>606114.25</v>
       </c>
       <c r="F76">
+        <v>12775118296.0182</v>
+      </c>
+      <c r="G76">
+        <v>627262048.2019763</v>
+      </c>
+      <c r="H76">
         <v>-133.0241482946321</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>-69.40126757993121</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>-57.45088802569208</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>-14.70852741157606</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>-17.87333755694288</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>-9.324865434119676</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>-89.3666877847145</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>-46.62432717059852</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77">
         <v>0.1223696320960522</v>
@@ -3912,33 +4371,39 @@
         <v>450064.75</v>
       </c>
       <c r="F77">
+        <v>3687889025.586543</v>
+      </c>
+      <c r="G77">
+        <v>730216301.5493581</v>
+      </c>
+      <c r="H77">
         <v>-25.90359425377602</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>-56.55648197216527</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>-50.01351233390395</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>-70.60636770300496</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>-3.480448399567059</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>-7.59901947338726</v>
       </c>
-      <c r="L77">
+      <c r="N77">
         <v>-17.40224199783535</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>-37.99509736693636</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>0.05989864754605726</v>
@@ -3953,33 +4418,39 @@
         <v>1262906.25</v>
       </c>
       <c r="F78">
+        <v>2271466888.177237</v>
+      </c>
+      <c r="G78">
+        <v>315552337.3372826</v>
+      </c>
+      <c r="H78">
         <v>-259.4079531313729</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>-268.4587394719542</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>-271.6004911643217</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>-277.6808818864137</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>-34.85446793467457</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>-36.07054607909294</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>-174.2723396733729</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>-180.352730395465</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>0.4560688034870074</v>
@@ -3994,33 +4465,39 @@
         <v>126704062</v>
       </c>
       <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>37787776867.76843</v>
+      </c>
+      <c r="H79">
         <v>10.97722834818245</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>53.36907538013957</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>9.122850556838953</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>37.6020327721718</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>1.474917977089018</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>7.170754420155587</v>
       </c>
-      <c r="L79">
+      <c r="N79">
         <v>7.374589885445072</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>35.85377210077792</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>0.1449132329743426</v>
@@ -4035,33 +4512,39 @@
         <v>30940675.25</v>
       </c>
       <c r="F80">
+        <v>40792453007.74967</v>
+      </c>
+      <c r="G80">
+        <v>17355071592.01313</v>
+      </c>
+      <c r="H80">
         <v>2.482139806007405</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>18.97072970402863</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>3.918466905588521</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>14.99563360289353</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>0.333504278621908</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>2.54893761808291</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>1.667521393109547</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>12.74468809041455</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81">
         <v>1.644956220241079</v>
@@ -4073,36 +4556,42 @@
         <v>10945000000</v>
       </c>
       <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" t="s">
-        <v>133</v>
-      </c>
-      <c r="H81" t="s">
-        <v>133</v>
-      </c>
-      <c r="I81" t="s">
-        <v>133</v>
-      </c>
-      <c r="J81" t="s">
-        <v>133</v>
-      </c>
-      <c r="K81" t="s">
-        <v>133</v>
-      </c>
-      <c r="L81" t="s">
-        <v>133</v>
-      </c>
-      <c r="M81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>2452515</v>
+      </c>
+      <c r="F81">
+        <v>3142398453.602035</v>
+      </c>
+      <c r="G81">
+        <v>508419371.5573662</v>
+      </c>
+      <c r="H81">
+        <v>0.3531833741251218</v>
+      </c>
+      <c r="I81">
+        <v>1.641714107039695</v>
+      </c>
+      <c r="J81">
+        <v>0.2303357882551942</v>
+      </c>
+      <c r="K81">
+        <v>1.095981050304452</v>
+      </c>
+      <c r="L81">
+        <v>0.04745428364823505</v>
+      </c>
+      <c r="M81">
+        <v>0.2205833360580866</v>
+      </c>
+      <c r="N81">
+        <v>0.2372714182411752</v>
+      </c>
+      <c r="O81">
+        <v>1.102916680290433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82">
         <v>1.77626889548744</v>
@@ -4117,33 +4606,39 @@
         <v>183629549.25</v>
       </c>
       <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>4255580884.992722</v>
+      </c>
+      <c r="H82">
         <v>0.1633685498622403</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>-0.1589380293646769</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>3.583938078304487</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>3.367409938068361</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>0.02195045993761055</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>-0.02135516810961465</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>0.1097522996880523</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>-0.1067758405480731</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>0.3602404008541973</v>
@@ -4158,33 +4653,39 @@
         <v>6115885.25</v>
       </c>
       <c r="F83">
+        <v>3148813587.287746</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>2.350177314161936</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>10.22564520132829</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>1.855596758137391</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>7.146399133899274</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>0.3157735869253507</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>1.373934062077728</v>
       </c>
-      <c r="L83">
+      <c r="N83">
         <v>1.578867934626752</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>6.869670310388634</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>0.0813244501352182</v>
@@ -4199,33 +4700,39 @@
         <v>16992024.75</v>
       </c>
       <c r="F84">
+        <v>301314513790.1466</v>
+      </c>
+      <c r="G84">
+        <v>25519214650.87755</v>
+      </c>
+      <c r="H84">
         <v>-221.6190221178896</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>-336.2254701158548</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>-262.2505186378966</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>-339.2440479154869</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>-29.77708665782506</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>-45.1757925133431</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <v>-148.8854332891255</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>-225.8789625667158</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85">
         <v>1.120509505427408</v>
@@ -4240,33 +4747,39 @@
         <v>5211053.25</v>
       </c>
       <c r="F85">
+        <v>143642415165.2614</v>
+      </c>
+      <c r="G85">
+        <v>12711932917.64178</v>
+      </c>
+      <c r="H85">
         <v>52.96185659483531</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>41.60901778499047</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>87.77804471565018</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>80.15111671501035</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>7.116039852142332</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>5.59065425201437</v>
       </c>
-      <c r="L85">
+      <c r="N85">
         <v>35.58019926071168</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>27.95327126007186</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>0.2769680603303864</v>
@@ -4281,33 +4794,39 @@
         <v>4648125</v>
       </c>
       <c r="F86">
+        <v>60860293470.54649</v>
+      </c>
+      <c r="G86">
+        <v>8974944428.672821</v>
+      </c>
+      <c r="H86">
         <v>7.028125350786352</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>17.18578895818326</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>0.04317914211964361</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>6.867178873460351</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>0.9443101752389262</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>2.309110121507062</v>
       </c>
-      <c r="L86">
+      <c r="N86">
         <v>4.72155087619461</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>11.54555060753531</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87">
         <v>0.07234454195091813</v>
@@ -4322,33 +4841,39 @@
         <v>4001485.25</v>
       </c>
       <c r="F87">
+        <v>8611043762.443003</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>13.57791207079988</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>-4.742608770426168</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>4.946706100885769</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>-7.361166470077128</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>1.824350006153649</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>-0.6372245080389318</v>
       </c>
-      <c r="L87">
+      <c r="N87">
         <v>9.121750030768238</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>-3.186122540194659</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88">
         <v>1.41044544263576</v>
@@ -4363,33 +4888,39 @@
         <v>31572337.25</v>
       </c>
       <c r="F88">
+        <v>25389636418.45771</v>
+      </c>
+      <c r="G88">
+        <v>6646655023.312309</v>
+      </c>
+      <c r="H88">
         <v>5.03757854925832</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>9.182002200213992</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>11.43679107395842</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>14.22104806196191</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>0.6768571198147028</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>1.233708517415402</v>
       </c>
-      <c r="L88">
+      <c r="N88">
         <v>3.384285599073517</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>6.168542587077009</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89">
         <v>0.1787880268188615</v>
@@ -4404,33 +4935,39 @@
         <v>8002940.75</v>
       </c>
       <c r="F89">
+        <v>3145721283.938551</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>-1.208508983286151</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>-2.645580784875884</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>13.70302047927689</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>12.73758413810642</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>-0.162377202002674</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>-0.3554644702367669</v>
       </c>
-      <c r="L89">
+      <c r="N89">
         <v>-0.8118860100133745</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>-1.777322351183839</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90">
         <v>0.2288659649874671</v>
@@ -4445,33 +4982,39 @@
         <v>102514230</v>
       </c>
       <c r="F90">
+        <v>43415746659.06635</v>
+      </c>
+      <c r="G90">
+        <v>11350149943.31396</v>
+      </c>
+      <c r="H90">
         <v>-0.9038602907404736</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>14.5047010323462</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>-1.027721329078848</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>9.323873525127642</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>-0.1214441158829275</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>1.94887485495837</v>
       </c>
-      <c r="L90">
+      <c r="N90">
         <v>-0.607220579414638</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>9.744374274791854</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91">
         <v>0.3769365909702638</v>
@@ -4486,33 +5029,39 @@
         <v>191286550.25</v>
       </c>
       <c r="F91">
+        <v>27858825095.19225</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>-0.4029141459020525</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>-0.128241565719643</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>-0.4203027830183947</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>-0.2357755446870828</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>-0.05413618977078104</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>-0.01723074210451865</v>
       </c>
-      <c r="L91">
+      <c r="N91">
         <v>-0.2706809488539054</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>-0.08615371052259348</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92">
         <v>0.1982935992218995</v>
@@ -4527,33 +5076,39 @@
         <v>37986018.75</v>
       </c>
       <c r="F92">
+        <v>159205910232.1582</v>
+      </c>
+      <c r="G92">
+        <v>9126103320.209379</v>
+      </c>
+      <c r="H92">
         <v>5.424416447590424</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>21.96387210046752</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>4.612654303094657</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>15.72399302173123</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>0.7288332792214481</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>2.951101022948763</v>
       </c>
-      <c r="L92">
+      <c r="N92">
         <v>3.644166396107235</v>
       </c>
-      <c r="M92">
+      <c r="O92">
         <v>14.7555051147438</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93">
         <v>0.01553378878135734</v>
@@ -4568,33 +5123,39 @@
         <v>3437937</v>
       </c>
       <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>-3446.477414081414</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>-3737.173642827586</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>-3625.233407982243</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>-3820.525461700294</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>-463.074223695236</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>-502.1326344388463</v>
       </c>
-      <c r="L93">
+      <c r="N93">
         <v>-2315.371118476183</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>-2510.663172194232</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94">
         <v>0.3474442448407433</v>
@@ -4609,33 +5170,39 @@
         <v>10344577</v>
       </c>
       <c r="F94">
+        <v>70681053927.93391</v>
+      </c>
+      <c r="G94">
+        <v>6615632134.18939</v>
+      </c>
+      <c r="H94">
         <v>10.99380126344776</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>21.88696713700102</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>8.509517256595272</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>15.82763329859984</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>1.47714474051984</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>2.940767948920753</v>
       </c>
-      <c r="L94">
+      <c r="N94">
         <v>7.385723702599206</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>14.70383974460377</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95">
         <v>0.1657047711363369</v>
@@ -4650,33 +5217,39 @@
         <v>6682077</v>
       </c>
       <c r="F95">
+        <v>3020223014.053269</v>
+      </c>
+      <c r="G95">
+        <v>606255246.4463352</v>
+      </c>
+      <c r="H95">
         <v>0.981061623016972</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>0.6042666595578435</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>1.008545443736339</v>
       </c>
-      <c r="I95">
+      <c r="K95">
         <v>0.7554115707516875</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>0.1318170104987788</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>0.08119023590184846</v>
       </c>
-      <c r="L95">
+      <c r="N95">
         <v>0.6590850524938928</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>0.4059511795092418</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96">
         <v>0.4278407161903409</v>
@@ -4691,33 +5264,39 @@
         <v>2516243.25</v>
       </c>
       <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>6649586666.688611</v>
+      </c>
+      <c r="H96">
         <v>-43.90127169275792</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>-45.67310494876585</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>-34.96459085494461</v>
       </c>
-      <c r="I96">
+      <c r="K96">
         <v>-36.15492262121553</v>
       </c>
-      <c r="J96">
+      <c r="L96">
         <v>-5.898645157312294</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>-6.136711510566474</v>
       </c>
-      <c r="L96">
+      <c r="N96">
         <v>-29.49322578656149</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>-30.68355755283241</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97">
         <v>0.2631583188033569</v>
@@ -4732,33 +5311,39 @@
         <v>19753332.75</v>
       </c>
       <c r="F97">
+        <v>48321281767.00397</v>
+      </c>
+      <c r="G97">
+        <v>3772988828.179805</v>
+      </c>
+      <c r="H97">
         <v>3.527076549967026</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>12.59113078850623</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>3.30144171548372</v>
       </c>
-      <c r="I97">
+      <c r="K97">
         <v>9.390745917643667</v>
       </c>
-      <c r="J97">
+      <c r="L97">
         <v>0.4739036526444136</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>1.691764493076402</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>2.369518263222067</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>8.458822465382015</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98">
         <v>3.037009127788569</v>
@@ -4773,33 +5358,39 @@
         <v>7076637.25</v>
       </c>
       <c r="F98">
+        <v>13839772672.29938</v>
+      </c>
+      <c r="G98">
+        <v>902243620.0800525</v>
+      </c>
+      <c r="H98">
         <v>1.445766516793837</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>5.899736588314657</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>1.458837705532255</v>
       </c>
-      <c r="I98">
+      <c r="K98">
         <v>4.451050457028034</v>
       </c>
-      <c r="J98">
+      <c r="L98">
         <v>0.1942555040904896</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>0.7926980543896455</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>0.9712775204524483</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>3.963490271948227</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99">
         <v>0.4012236469816403</v>
@@ -4814,33 +5405,39 @@
         <v>144188494</v>
       </c>
       <c r="F99">
+        <v>400814842174.5289</v>
+      </c>
+      <c r="G99">
+        <v>46100109643.07681</v>
+      </c>
+      <c r="H99">
         <v>1.729170018730678</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>5.629117694714588</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>1.823254453345953</v>
       </c>
-      <c r="I99">
+      <c r="K99">
         <v>4.443270524145642</v>
       </c>
-      <c r="J99">
+      <c r="L99">
         <v>0.2323340523832233</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>0.7563372665431607</v>
       </c>
-      <c r="L99">
+      <c r="N99">
         <v>1.161670261916115</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>3.781686332715803</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100">
         <v>0.4191281043252832</v>
@@ -4855,33 +5452,39 @@
         <v>31886941.5</v>
       </c>
       <c r="F100">
+        <v>21829976674.02858</v>
+      </c>
+      <c r="G100">
+        <v>3500018031.81101</v>
+      </c>
+      <c r="H100">
         <v>1.500573914378437</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>3.536914277937429</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>2.015294227403436</v>
       </c>
-      <c r="I100">
+      <c r="K100">
         <v>3.383323986109525</v>
       </c>
-      <c r="J100">
+      <c r="L100">
         <v>0.2016195137850107</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>0.4752254655262285</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>1.008097568925055</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>2.376127327631144</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101">
         <v>1.215566435947169</v>
@@ -4896,33 +5499,39 @@
         <v>9871531.25</v>
       </c>
       <c r="F101">
+        <v>227165214131.7061</v>
+      </c>
+      <c r="G101">
+        <v>13598015763.87418</v>
+      </c>
+      <c r="H101">
         <v>9.908776401922697</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>6.604405840317279</v>
       </c>
-      <c r="H101">
+      <c r="J101">
         <v>-0.932596554635059</v>
       </c>
-      <c r="I101">
+      <c r="K101">
         <v>-3.152499151943459</v>
       </c>
-      <c r="J101">
+      <c r="L101">
         <v>1.331359062834012</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>0.8873785433723312</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>6.656795314170072</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>4.436892716861667</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102">
         <v>0.06238487249287841</v>
@@ -4937,33 +5546,39 @@
         <v>5556065.5</v>
       </c>
       <c r="F102">
+        <v>44213495718.4691</v>
+      </c>
+      <c r="G102">
+        <v>14218511286.90894</v>
+      </c>
+      <c r="H102">
         <v>-62.3480961304974</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>-375.9278553326324</v>
       </c>
-      <c r="H102">
+      <c r="J102">
         <v>-237.7063027979752</v>
       </c>
-      <c r="I102">
+      <c r="K102">
         <v>-448.3716954765612</v>
       </c>
-      <c r="J102">
+      <c r="L102">
         <v>-8.377190024963847</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>-50.51026856068111</v>
       </c>
-      <c r="L102">
+      <c r="N102">
         <v>-41.88595012481935</v>
       </c>
-      <c r="M102">
+      <c r="O102">
         <v>-252.5513428034056</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103">
         <v>0.1540733019247695</v>
@@ -4978,33 +5593,39 @@
         <v>2064325.25</v>
       </c>
       <c r="F103">
+        <v>16215475323.27907</v>
+      </c>
+      <c r="G103">
+        <v>794473219.0465115</v>
+      </c>
+      <c r="H103">
         <v>4.03007165580035</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>8.371190121595779</v>
       </c>
-      <c r="H103">
+      <c r="J103">
         <v>3.589801352880445</v>
       </c>
-      <c r="I103">
+      <c r="K103">
         <v>6.506199492186208</v>
       </c>
-      <c r="J103">
+      <c r="L103">
         <v>0.5414868804365355</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>1.124766508297689</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>2.707434402182679</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>5.623832541488444</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104">
         <v>0.1361389850972489</v>
@@ -5019,33 +5640,39 @@
         <v>5428285</v>
       </c>
       <c r="F104">
+        <v>29592783664.32924</v>
+      </c>
+      <c r="G104">
+        <v>2885401551.024737</v>
+      </c>
+      <c r="H104">
         <v>5.004704118212516</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>37.32897410519361</v>
       </c>
-      <c r="H104">
+      <c r="J104">
         <v>4.114700991697509</v>
       </c>
-      <c r="I104">
+      <c r="K104">
         <v>25.83040434953607</v>
       </c>
-      <c r="J104">
+      <c r="L104">
         <v>0.6724400586223827</v>
       </c>
-      <c r="K104">
+      <c r="M104">
         <v>5.015580730190098</v>
       </c>
-      <c r="L104">
+      <c r="N104">
         <v>3.3622002931119</v>
       </c>
-      <c r="M104">
+      <c r="O104">
         <v>25.07790365095047</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B105">
         <v>0.02200725380977351</v>
@@ -5060,33 +5687,39 @@
         <v>15196321.5</v>
       </c>
       <c r="F105">
+        <v>2342662060.465637</v>
+      </c>
+      <c r="G105">
+        <v>216441678.0427456</v>
+      </c>
+      <c r="H105">
         <v>-1.102968019616427</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>-1.006303899828838</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>-1.139740323432194</v>
       </c>
-      <c r="I105">
+      <c r="K105">
         <v>-1.07480059388844</v>
       </c>
-      <c r="J105">
+      <c r="L105">
         <v>-0.1481965491367309</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>-0.13520860322798</v>
       </c>
-      <c r="L105">
+      <c r="N105">
         <v>-0.7409827456836541</v>
       </c>
-      <c r="M105">
+      <c r="O105">
         <v>-0.6760430161398999</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106">
         <v>0.2294454729434642</v>
@@ -5101,33 +5734,39 @@
         <v>6329060.5</v>
       </c>
       <c r="F106">
+        <v>4767420112.154323</v>
+      </c>
+      <c r="G106">
+        <v>999200870.7878593</v>
+      </c>
+      <c r="H106">
         <v>-1.286235947946841</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>34.74990436346319</v>
       </c>
-      <c r="H106">
+      <c r="J106">
         <v>-1.920284334990633</v>
       </c>
-      <c r="I106">
+      <c r="K106">
         <v>22.28908322316946</v>
       </c>
-      <c r="J106">
+      <c r="L106">
         <v>-0.1728207214272814</v>
       </c>
-      <c r="K106">
+      <c r="M106">
         <v>4.669052790204737</v>
       </c>
-      <c r="L106">
+      <c r="N106">
         <v>-0.8641036071364183</v>
       </c>
-      <c r="M106">
+      <c r="O106">
         <v>23.34526395102368</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B107">
         <v>0.005817303773967213</v>
@@ -5141,34 +5780,40 @@
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="F107" t="s">
-        <v>132</v>
-      </c>
-      <c r="G107" t="s">
-        <v>132</v>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>134</v>
+      </c>
+      <c r="N107" t="s">
+        <v>134</v>
+      </c>
+      <c r="O107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108">
         <v>0.1702710851104377</v>
@@ -5183,33 +5828,39 @@
         <v>68743849.75</v>
       </c>
       <c r="F108">
+        <v>71255532011.76402</v>
+      </c>
+      <c r="G108">
+        <v>16467162037.08834</v>
+      </c>
+      <c r="H108">
         <v>-1.870838299685217</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>2.506699533512519</v>
       </c>
-      <c r="H108">
+      <c r="J108">
         <v>-1.950968016478284</v>
       </c>
-      <c r="I108">
+      <c r="K108">
         <v>0.9898969454133333</v>
       </c>
-      <c r="J108">
+      <c r="L108">
         <v>-0.2513688294449348</v>
       </c>
-      <c r="K108">
+      <c r="M108">
         <v>0.3368041629333881</v>
       </c>
-      <c r="L108">
+      <c r="N108">
         <v>-1.256844147224671</v>
       </c>
-      <c r="M108">
+      <c r="O108">
         <v>1.684020814666946</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109">
         <v>0.2338423056782688</v>
@@ -5224,33 +5875,39 @@
         <v>11338236</v>
       </c>
       <c r="F109">
+        <v>12460186638.38316</v>
+      </c>
+      <c r="G109">
+        <v>679178508.4349424</v>
+      </c>
+      <c r="H109">
         <v>0.5064124022024151</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>4.009070879032939</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>0.2827093764432197</v>
       </c>
-      <c r="I109">
+      <c r="K109">
         <v>2.635823382646772</v>
       </c>
-      <c r="J109">
+      <c r="L109">
         <v>0.06804238120388967</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>0.5386651824446002</v>
       </c>
-      <c r="L109">
+      <c r="N109">
         <v>0.340211906019448</v>
       </c>
-      <c r="M109">
+      <c r="O109">
         <v>2.693325912223</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110">
         <v>0.5210711135742035</v>
@@ -5265,33 +5922,39 @@
         <v>78889886.5</v>
       </c>
       <c r="F110">
+        <v>214797500930.788</v>
+      </c>
+      <c r="G110">
+        <v>14703822077.67806</v>
+      </c>
+      <c r="H110">
         <v>2.245188673959972</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>3.557061884105426</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>1.697738403516084</v>
       </c>
-      <c r="I110">
+      <c r="K110">
         <v>2.579065328643488</v>
       </c>
-      <c r="J110">
+      <c r="L110">
         <v>0.3016671451248895</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>0.4779325301503704</v>
       </c>
-      <c r="L110">
+      <c r="N110">
         <v>1.508335725624447</v>
       </c>
-      <c r="M110">
+      <c r="O110">
         <v>2.389662650751851</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B111">
         <v>0.1802527304245044</v>
@@ -5306,33 +5969,39 @@
         <v>23577271</v>
       </c>
       <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>-0.5394021035827838</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>4.865097040911216</v>
       </c>
-      <c r="H111">
+      <c r="J111">
         <v>-2.367183005745835</v>
       </c>
-      <c r="I111">
+      <c r="K111">
         <v>1.26360278668792</v>
       </c>
-      <c r="J111">
+      <c r="L111">
         <v>-0.07247493030292904</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>0.6536822281838227</v>
       </c>
-      <c r="L111">
+      <c r="N111">
         <v>-0.362374651514652</v>
       </c>
-      <c r="M111">
+      <c r="O111">
         <v>3.268411140919107</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112">
         <v>0.2967113110764871</v>
@@ -5347,33 +6016,39 @@
         <v>45065445</v>
       </c>
       <c r="F112">
+        <v>29874275095.81216</v>
+      </c>
+      <c r="G112">
+        <v>2294800315.93204</v>
+      </c>
+      <c r="H112">
         <v>0.3546548399231904</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>2.304844326011022</v>
       </c>
-      <c r="H112">
+      <c r="J112">
         <v>0.1771381902748166</v>
       </c>
-      <c r="I112">
+      <c r="K112">
         <v>1.487291099791898</v>
       </c>
-      <c r="J112">
+      <c r="L112">
         <v>0.04765199214890611</v>
       </c>
-      <c r="K112">
+      <c r="M112">
         <v>0.3096825740523226</v>
       </c>
-      <c r="L112">
+      <c r="N112">
         <v>0.2382599607445305</v>
       </c>
-      <c r="M112">
+      <c r="O112">
         <v>1.548412870261612</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B113">
         <v>2.296491669346442</v>
@@ -5388,33 +6063,39 @@
         <v>40832282.75</v>
       </c>
       <c r="F113">
+        <v>3207987015.574299</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>0.08039368057797322</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>0.1231628641531626</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>0.1198435452341218</v>
       </c>
-      <c r="I113">
+      <c r="K113">
         <v>0.1485762251600667</v>
       </c>
-      <c r="J113">
+      <c r="L113">
         <v>0.01080182364507681</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>0.01654835963026579</v>
       </c>
-      <c r="L113">
+      <c r="N113">
         <v>0.05400911822538401</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>0.0827417981513289</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114">
         <v>0.2034671187804626</v>
@@ -5429,33 +6110,39 @@
         <v>322196869.25</v>
       </c>
       <c r="F114">
+        <v>5030701274022.499</v>
+      </c>
+      <c r="G114">
+        <v>355596860701.1148</v>
+      </c>
+      <c r="H114">
         <v>63.0555688126681</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>16.92155843451324</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>82.0214801331244</v>
       </c>
-      <c r="I114">
+      <c r="K114">
         <v>51.02828262292694</v>
       </c>
-      <c r="J114">
+      <c r="L114">
         <v>8.472247187312739</v>
       </c>
-      <c r="K114">
+      <c r="M114">
         <v>2.273607685273189</v>
       </c>
-      <c r="L114">
+      <c r="N114">
         <v>42.36123593656325</v>
       </c>
-      <c r="M114">
+      <c r="O114">
         <v>11.36803842636579</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B115">
         <v>0.03031723305851668</v>
@@ -5470,33 +6157,39 @@
         <v>3437963.5</v>
       </c>
       <c r="F115">
+        <v>17942881571.56679</v>
+      </c>
+      <c r="G115">
+        <v>1424464477.417897</v>
+      </c>
+      <c r="H115">
         <v>-42.45090955211288</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>-43.26972171756638</v>
       </c>
-      <c r="H115">
+      <c r="J115">
         <v>-46.69968844365649</v>
       </c>
-      <c r="I115">
+      <c r="K115">
         <v>-47.24977301162784</v>
       </c>
-      <c r="J115">
+      <c r="L115">
         <v>-5.703772177842861</v>
       </c>
-      <c r="K115">
+      <c r="M115">
         <v>-5.813789091437126</v>
       </c>
-      <c r="L115">
+      <c r="N115">
         <v>-28.51886088921431</v>
       </c>
-      <c r="M115">
+      <c r="O115">
         <v>-29.06894545718565</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B116">
         <v>0.007677296166441261</v>
@@ -5534,10 +6227,16 @@
       <c r="M116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B117">
         <v>0.504179661327714</v>
@@ -5575,10 +6274,16 @@
       <c r="M117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B118">
         <v>0.176418937746618</v>
@@ -5593,33 +6298,39 @@
         <v>94056588.5</v>
       </c>
       <c r="F118">
+        <v>37720488719.37246</v>
+      </c>
+      <c r="G118">
+        <v>7680824462.047056</v>
+      </c>
+      <c r="H118">
         <v>0.05444269700721866</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>2.336389421715583</v>
       </c>
-      <c r="H118">
+      <c r="J118">
         <v>-0.03598374721704526</v>
       </c>
-      <c r="I118">
+      <c r="K118">
         <v>1.497046331176574</v>
       </c>
-      <c r="J118">
+      <c r="L118">
         <v>0.007315007941002974</v>
       </c>
-      <c r="K118">
+      <c r="M118">
         <v>0.313921023619727</v>
       </c>
-      <c r="L118">
+      <c r="N118">
         <v>0.03657503970501459</v>
       </c>
-      <c r="M118">
+      <c r="O118">
         <v>1.569605118098633</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B119">
         <v>0.3322926075144546</v>
@@ -5634,33 +6345,39 @@
         <v>55640856.25</v>
       </c>
       <c r="F119">
+        <v>86191971741.78984</v>
+      </c>
+      <c r="G119">
+        <v>15808184832.85762</v>
+      </c>
+      <c r="H119">
         <v>7.170053044839229</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <v>14.06324647352106</v>
       </c>
-      <c r="H119">
+      <c r="J119">
         <v>5.468507066293375</v>
       </c>
-      <c r="I119">
+      <c r="K119">
         <v>10.09940959698459</v>
       </c>
-      <c r="J119">
+      <c r="L119">
         <v>0.9633798074598847</v>
       </c>
-      <c r="K119">
+      <c r="M119">
         <v>1.889560313598127</v>
       </c>
-      <c r="L119">
+      <c r="N119">
         <v>4.816899037299422</v>
       </c>
-      <c r="M119">
+      <c r="O119">
         <v>9.447801567990636</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B120">
         <v>0.110305415721579</v>
@@ -5675,27 +6392,33 @@
         <v>15967348</v>
       </c>
       <c r="F120">
+        <v>2189217368.947853</v>
+      </c>
+      <c r="G120">
+        <v>284694083.3487357</v>
+      </c>
+      <c r="H120">
         <v>-0.2855025813001332</v>
       </c>
-      <c r="G120">
+      <c r="I120">
         <v>0.6159195668629198</v>
       </c>
-      <c r="H120">
+      <c r="J120">
         <v>-0.2451549950471478</v>
       </c>
-      <c r="I120">
+      <c r="K120">
         <v>0.3604276206647767</v>
       </c>
-      <c r="J120">
+      <c r="L120">
         <v>-0.03836058395693345</v>
       </c>
-      <c r="K120">
+      <c r="M120">
         <v>0.0827559391854514</v>
       </c>
-      <c r="L120">
+      <c r="N120">
         <v>-0.1918029197846678</v>
       </c>
-      <c r="M120">
+      <c r="O120">
         <v>0.4137796959272567</v>
       </c>
     </row>
